--- a/TestData/ETestData.xlsx
+++ b/TestData/ETestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>sharma12555ronit@gmail.com</t>
+  </si>
+  <si>
+    <t>Android TV</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1031,12 +1034,21 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
